--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="189">
   <si>
     <t>API Mode</t>
   </si>
@@ -529,6 +529,87 @@
   </si>
   <si>
     <t>RMA-3ZTQ-1-3</t>
+  </si>
+  <si>
+    <t>RMA-4Z9C-001</t>
+  </si>
+  <si>
+    <t>RMA-4Z9C-002</t>
+  </si>
+  <si>
+    <t>RMA-4Z9C-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL17AAE</t>
+  </si>
+  <si>
+    <t>RMA-4Z9C-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL18AAE</t>
+  </si>
+  <si>
+    <t>RMA-4Z9C-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL19AAE</t>
+  </si>
+  <si>
+    <t>RMA-4Z9C-1-3</t>
+  </si>
+  <si>
+    <t>RMA-N181-001</t>
+  </si>
+  <si>
+    <t>RMA-N181-002</t>
+  </si>
+  <si>
+    <t>RMA-N181-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2eAAE</t>
+  </si>
+  <si>
+    <t>RMA-N181-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2fAAE</t>
+  </si>
+  <si>
+    <t>RMA-N181-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2gAAE</t>
+  </si>
+  <si>
+    <t>RMA-N181-1-3</t>
+  </si>
+  <si>
+    <t>RMA-PPLQ-001</t>
+  </si>
+  <si>
+    <t>RMA-PPLQ-002</t>
+  </si>
+  <si>
+    <t>RMA-PPLQ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3IAAU</t>
+  </si>
+  <si>
+    <t>RMA-PPLQ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3JAAU</t>
+  </si>
+  <si>
+    <t>RMA-PPLQ-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3KAAU</t>
+  </si>
+  <si>
+    <t>RMA-PPLQ-1-3</t>
   </si>
 </sst>
 </file>
@@ -538,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="159" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +639,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1288,7 +1585,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1476,11 +1773,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1602,8 +1953,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="122" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="158" fillId="0" borderId="78" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2472,11 +2859,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.3125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.1953125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.6328125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2526,10 +2913,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2538,7 +2925,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2555,10 +2942,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2567,7 +2954,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2584,10 +2971,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2596,7 +2983,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="207">
   <si>
     <t>API Mode</t>
   </si>
@@ -610,6 +610,60 @@
   </si>
   <si>
     <t>RMA-PPLQ-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ZNSN-001</t>
+  </si>
+  <si>
+    <t>RMA-ZNSN-002</t>
+  </si>
+  <si>
+    <t>RMA-ZNSN-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6MAAU</t>
+  </si>
+  <si>
+    <t>RMA-ZNSN-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6NAAU</t>
+  </si>
+  <si>
+    <t>RMA-ZNSN-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6OAAU</t>
+  </si>
+  <si>
+    <t>RMA-ZNSN-1-3</t>
+  </si>
+  <si>
+    <t>RMA-WZGJ-001</t>
+  </si>
+  <si>
+    <t>RMA-WZGJ-002</t>
+  </si>
+  <si>
+    <t>RMA-WZGJ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7ZAAU</t>
+  </si>
+  <si>
+    <t>RMA-WZGJ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7aAAE</t>
+  </si>
+  <si>
+    <t>RMA-WZGJ-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7bAAE</t>
+  </si>
+  <si>
+    <t>RMA-WZGJ-1-3</t>
   </si>
 </sst>
 </file>
@@ -619,7 +673,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="159" x14ac:knownFonts="1">
+  <fonts count="183" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +693,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1585,7 +1783,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -1827,11 +2025,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="183">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1989,8 +2223,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="158" fillId="0" borderId="78" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="182" fillId="0" borderId="90" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2859,11 +3117,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.3125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.6328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5234375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2913,10 +3171,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2925,7 +3183,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2942,10 +3200,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2954,7 +3212,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2971,10 +3229,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2983,7 +3241,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="321">
   <si>
     <t>API Mode</t>
   </si>
@@ -691,6 +691,321 @@
   </si>
   <si>
     <t>RMA-HT43-1-3</t>
+  </si>
+  <si>
+    <t>RMA-002X-001</t>
+  </si>
+  <si>
+    <t>RMA-002X-002</t>
+  </si>
+  <si>
+    <t>RMA-002X-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQRAA2</t>
+  </si>
+  <si>
+    <t>RMA-002X-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQSAA2</t>
+  </si>
+  <si>
+    <t>RMA-002X-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQTAA2</t>
+  </si>
+  <si>
+    <t>RMA-002X-1-3</t>
+  </si>
+  <si>
+    <t>RMA-33A5-001</t>
+  </si>
+  <si>
+    <t>RMA-33A5-002</t>
+  </si>
+  <si>
+    <t>RMA-33A5-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLS3AAM</t>
+  </si>
+  <si>
+    <t>RMA-33A5-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLS4AAM</t>
+  </si>
+  <si>
+    <t>RMA-33A5-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLS5AAM</t>
+  </si>
+  <si>
+    <t>RMA-33A5-1-3</t>
+  </si>
+  <si>
+    <t>RMA-GCIB-001</t>
+  </si>
+  <si>
+    <t>RMA-GCIB-002</t>
+  </si>
+  <si>
+    <t>RMA-GCIB-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSXAA2</t>
+  </si>
+  <si>
+    <t>RMA-GCIB-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSYAA2</t>
+  </si>
+  <si>
+    <t>RMA-GCIB-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSZAA2</t>
+  </si>
+  <si>
+    <t>RMA-GCIB-1-3</t>
+  </si>
+  <si>
+    <t>RMA-0TWP-001</t>
+  </si>
+  <si>
+    <t>RMA-0TWP-002</t>
+  </si>
+  <si>
+    <t>RMA-0TWP-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSrAAM</t>
+  </si>
+  <si>
+    <t>RMA-0TWP-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSsAAM</t>
+  </si>
+  <si>
+    <t>RMA-0TWP-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLStAAM</t>
+  </si>
+  <si>
+    <t>RMA-0TWP-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ZHE6-001</t>
+  </si>
+  <si>
+    <t>RMA-ZHE6-002</t>
+  </si>
+  <si>
+    <t>RMA-ZHE6-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLUJAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZHE6-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLUKAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZHE6-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLULAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZHE6-1-3</t>
+  </si>
+  <si>
+    <t>RMA-M0H7-001</t>
+  </si>
+  <si>
+    <t>RMA-M0H7-002</t>
+  </si>
+  <si>
+    <t>RMA-M0H7-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWUAA2</t>
+  </si>
+  <si>
+    <t>RMA-M0H7-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWVAA2</t>
+  </si>
+  <si>
+    <t>RMA-M0H7-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWWAA2</t>
+  </si>
+  <si>
+    <t>RMA-M0H7-1-3</t>
+  </si>
+  <si>
+    <t>RMA-Z7LX-001</t>
+  </si>
+  <si>
+    <t>RMA-Z7LX-002</t>
+  </si>
+  <si>
+    <t>RMA-Z7LX-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLXDAA2</t>
+  </si>
+  <si>
+    <t>RMA-Z7LX-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLXEAA2</t>
+  </si>
+  <si>
+    <t>RMA-Z7LX-1-2</t>
+  </si>
+  <si>
+    <t>RMA-C66L-001</t>
+  </si>
+  <si>
+    <t>RMA-C66L-002</t>
+  </si>
+  <si>
+    <t>RMA-C66L-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLXXAA2</t>
+  </si>
+  <si>
+    <t>RMA-C66L-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLXYAA2</t>
+  </si>
+  <si>
+    <t>RMA-C66L-1-2</t>
+  </si>
+  <si>
+    <t>RMA-0YUA-001</t>
+  </si>
+  <si>
+    <t>RMA-0YUA-002</t>
+  </si>
+  <si>
+    <t>RMA-0YUA-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYLAA2</t>
+  </si>
+  <si>
+    <t>RMA-0YUA-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYMAA2</t>
+  </si>
+  <si>
+    <t>RMA-0YUA-1-2</t>
+  </si>
+  <si>
+    <t>RMA-AS22-001</t>
+  </si>
+  <si>
+    <t>RMA-AS22-002</t>
+  </si>
+  <si>
+    <t>RMA-AS22-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYQAA2</t>
+  </si>
+  <si>
+    <t>RMA-AS22-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYRAA2</t>
+  </si>
+  <si>
+    <t>RMA-AS22-1-2</t>
+  </si>
+  <si>
+    <t>RMA-7WU7-001</t>
+  </si>
+  <si>
+    <t>RMA-7WU7-002</t>
+  </si>
+  <si>
+    <t>RMA-7WU7-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYpAAM</t>
+  </si>
+  <si>
+    <t>RMA-7WU7-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYqAAM</t>
+  </si>
+  <si>
+    <t>RMA-7WU7-1-2</t>
+  </si>
+  <si>
+    <t>RMA-UTNX-001</t>
+  </si>
+  <si>
+    <t>RMA-UTNX-002</t>
+  </si>
+  <si>
+    <t>RMA-UTNX-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZEAA2</t>
+  </si>
+  <si>
+    <t>RMA-UTNX-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZFAA2</t>
+  </si>
+  <si>
+    <t>RMA-UTNX-1-2</t>
+  </si>
+  <si>
+    <t>RMA-VQUG-001</t>
+  </si>
+  <si>
+    <t>RMA-VQUG-002</t>
+  </si>
+  <si>
+    <t>RMA-VQUG-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcDAAU</t>
+  </si>
+  <si>
+    <t>RMA-VQUG-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcEAAU</t>
+  </si>
+  <si>
+    <t>RMA-VQUG-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcFAAU</t>
+  </si>
+  <si>
+    <t>RMA-VQUG-1-3</t>
   </si>
 </sst>
 </file>
@@ -700,7 +1015,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="195" x14ac:knownFonts="1">
+  <fonts count="339" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +1035,870 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1882,7 +3061,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="97">
+  <borders count="169">
     <border>
       <left/>
       <right/>
@@ -2178,11 +3357,227 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="339">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2376,8 +3771,152 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="194" fillId="0" borderId="96" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="111" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="114" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="115" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="233" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="116" fillId="0" fontId="234" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="235" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="117" fillId="0" fontId="236" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="237" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="118" fillId="0" fontId="238" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="239" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="119" fillId="0" fontId="240" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="241" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="120" fillId="0" fontId="242" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="243" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="121" fillId="0" fontId="244" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="245" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="122" fillId="0" fontId="246" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="247" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="123" fillId="0" fontId="248" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="249" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="250" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="251" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="252" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="253" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="126" fillId="0" fontId="254" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="255" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="127" fillId="0" fontId="256" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="257" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="128" fillId="0" fontId="258" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="259" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="129" fillId="0" fontId="260" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="261" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="262" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="263" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="264" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="265" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="132" fillId="0" fontId="266" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="267" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="133" fillId="0" fontId="268" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="269" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="134" fillId="0" fontId="270" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="271" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="135" fillId="0" fontId="272" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="273" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="136" fillId="0" fontId="274" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="275" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="137" fillId="0" fontId="276" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="277" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="138" fillId="0" fontId="278" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="279" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="139" fillId="0" fontId="280" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="281" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="140" fillId="0" fontId="282" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="283" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="141" fillId="0" fontId="284" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="285" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="289" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="144" fillId="0" fontId="290" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="291" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="145" fillId="0" fontId="292" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="293" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="146" fillId="0" fontId="294" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="295" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="147" fillId="0" fontId="296" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="297" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="148" fillId="0" fontId="298" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="299" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="149" fillId="0" fontId="300" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="301" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="150" fillId="0" fontId="302" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="303" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="151" fillId="0" fontId="304" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="305" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="152" fillId="0" fontId="306" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="307" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="308" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="309" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="310" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="311" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="312" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="313" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="314" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="315" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="316" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="317" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="318" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="319" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="321" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="325" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="326" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="327" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="328" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="329" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="330" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="331" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="332" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="333" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="338" fillId="0" borderId="168" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3245,12 +4784,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.30859375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.60546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.6796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.66015625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3300,10 +4839,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3312,7 +4851,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3329,10 +4868,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>213</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3341,7 +4880,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>212</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3358,10 +4897,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3370,7 +4909,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>214</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857421E7-9535-4CD6-8E1E-4EA42BEA4F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{857421E7-9535-4CD6-8E1E-4EA42BEA4F8F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="761" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="7" firstSheet="1" tabRatio="761" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
-    <sheet name="AddLine" sheetId="2" r:id="rId2"/>
-    <sheet name="FirmAllLines" sheetId="3" r:id="rId3"/>
-    <sheet name="Allocate" sheetId="5" r:id="rId4"/>
-    <sheet name="PickPackShip" sheetId="13" r:id="rId5"/>
-    <sheet name="CreateInvoice" sheetId="18" r:id="rId6"/>
-    <sheet name="RMA Header" sheetId="19" r:id="rId7"/>
-    <sheet name="RMA Details Maintenance Grid" sheetId="20" r:id="rId8"/>
-    <sheet name="Receipt" sheetId="21" r:id="rId9"/>
-    <sheet name="Inspection Order Qty" sheetId="22" r:id="rId10"/>
+    <sheet name="AddHeader" r:id="rId1" sheetId="1"/>
+    <sheet name="AddLine" r:id="rId2" sheetId="2"/>
+    <sheet name="FirmAllLines" r:id="rId3" sheetId="3"/>
+    <sheet name="Allocate" r:id="rId4" sheetId="5"/>
+    <sheet name="PickPackShip" r:id="rId5" sheetId="13"/>
+    <sheet name="CreateInvoice" r:id="rId6" sheetId="18"/>
+    <sheet name="RMA Header" r:id="rId7" sheetId="19"/>
+    <sheet name="RMA Details Maintenance Grid" r:id="rId8" sheetId="20"/>
+    <sheet name="Receipt" r:id="rId9" sheetId="21"/>
+    <sheet name="Inspection Order Qty" r:id="rId10" sheetId="22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>API Mode</t>
   </si>
@@ -223,13 +223,70 @@
   </si>
   <si>
     <t>a7s5f000000xNYsAAM</t>
+  </si>
+  <si>
+    <t>RMA-4YZE-001</t>
+  </si>
+  <si>
+    <t>RMA-4YZE-002</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNgXAAU</t>
+  </si>
+  <si>
+    <t>RMA-4YZE-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNgYAAU</t>
+  </si>
+  <si>
+    <t>RMA-4YZE-1-2</t>
+  </si>
+  <si>
+    <t>RMA-NUX2-001</t>
+  </si>
+  <si>
+    <t>RMA-NUX2-002</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNpFAAU</t>
+  </si>
+  <si>
+    <t>RMA-NUX2-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNpGAAU</t>
+  </si>
+  <si>
+    <t>RMA-NUX2-1-2</t>
+  </si>
+  <si>
+    <t>RMA-9SB8-001</t>
+  </si>
+  <si>
+    <t>RMA-9SB8-002</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNuoAAE</t>
+  </si>
+  <si>
+    <t>RMA-9SB8-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNupAAE</t>
+  </si>
+  <si>
+    <t>RMA-9SB8-1-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +306,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,7 +460,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -267,20 +468,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="27">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -297,10 +558,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -335,7 +596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -370,7 +631,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -464,21 +725,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -495,7 +756,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -547,14 +808,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -563,12 +824,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -618,13 +879,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B6296E-3C4C-4BEB-BF20-6F50EE76254E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B6296E-3C4C-4BEB-BF20-6F50EE76254E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -633,11 +894,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -683,12 +944,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -697,19 +958,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -839,13 +1100,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -854,8 +1115,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -876,13 +1137,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -891,9 +1152,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -919,13 +1180,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -934,9 +1195,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="21.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,12 +1223,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -976,9 +1237,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1004,13 +1265,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1019,12 +1280,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1065,13 +1326,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1080,16 +1341,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="21.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.48046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.07421875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.8515625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1137,6 +1399,12 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
@@ -1144,7 +1412,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1160,6 +1428,12 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
@@ -1167,17 +1441,17 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1186,14 +1460,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1248,7 +1522,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
+++ b/templates/AutomationOrg/SO to RMA To INSP Order To RMA Receipt.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{857421E7-9535-4CD6-8E1E-4EA42BEA4F8F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE57093-1371-43F4-B55F-045E396EF9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="1" tabRatio="761" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddHeader" r:id="rId1" sheetId="1"/>
-    <sheet name="AddLine" r:id="rId2" sheetId="2"/>
-    <sheet name="FirmAllLines" r:id="rId3" sheetId="3"/>
-    <sheet name="Allocate" r:id="rId4" sheetId="5"/>
-    <sheet name="PickPackShip" r:id="rId5" sheetId="13"/>
-    <sheet name="CreateInvoice" r:id="rId6" sheetId="18"/>
-    <sheet name="RMA Header" r:id="rId7" sheetId="19"/>
-    <sheet name="RMA Details Maintenance Grid" r:id="rId8" sheetId="20"/>
-    <sheet name="Receipt" r:id="rId9" sheetId="21"/>
-    <sheet name="Inspection Order Qty" r:id="rId10" sheetId="22"/>
+    <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
+    <sheet name="AddLine" sheetId="2" r:id="rId2"/>
+    <sheet name="FirmAllLines" sheetId="3" r:id="rId3"/>
+    <sheet name="Allocate" sheetId="5" r:id="rId4"/>
+    <sheet name="PickPackShip" sheetId="13" r:id="rId5"/>
+    <sheet name="CreateInvoice" sheetId="18" r:id="rId6"/>
+    <sheet name="RMA Header" sheetId="19" r:id="rId7"/>
+    <sheet name="RMA Details Maintenance Grid" sheetId="20" r:id="rId8"/>
+    <sheet name="Receipt" sheetId="21" r:id="rId9"/>
+    <sheet name="Inspection Order Qty" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>API Mode</t>
   </si>
@@ -219,74 +219,17 @@
     <t>Quantity in Other Disposition</t>
   </si>
   <si>
-    <t>a7s5f000000xNYrAAM</t>
-  </si>
-  <si>
-    <t>a7s5f000000xNYsAAM</t>
-  </si>
-  <si>
-    <t>RMA-4YZE-001</t>
-  </si>
-  <si>
-    <t>RMA-4YZE-002</t>
-  </si>
-  <si>
-    <t>a7s5f000000xNgXAAU</t>
-  </si>
-  <si>
-    <t>RMA-4YZE-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xNgYAAU</t>
-  </si>
-  <si>
-    <t>RMA-4YZE-1-2</t>
-  </si>
-  <si>
-    <t>RMA-NUX2-001</t>
-  </si>
-  <si>
-    <t>RMA-NUX2-002</t>
-  </si>
-  <si>
-    <t>a7s5f000000xNpFAAU</t>
-  </si>
-  <si>
-    <t>RMA-NUX2-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xNpGAAU</t>
-  </si>
-  <si>
-    <t>RMA-NUX2-1-2</t>
-  </si>
-  <si>
-    <t>RMA-9SB8-001</t>
-  </si>
-  <si>
-    <t>RMA-9SB8-002</t>
-  </si>
-  <si>
-    <t>a7s5f000000xNuoAAE</t>
-  </si>
-  <si>
-    <t>RMA-9SB8-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xNupAAE</t>
-  </si>
-  <si>
-    <t>RMA-9SB8-1-2</t>
+    <t>a7s5f000000xOchAAE</t>
+  </si>
+  <si>
+    <t>a7s5f000000xOciAAE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,150 +250,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -460,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -468,80 +267,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -558,10 +297,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -596,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -631,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -725,21 +464,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -756,7 +495,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -808,28 +547,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -879,26 +618,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B6296E-3C4C-4BEB-BF20-6F50EE76254E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B6296E-3C4C-4BEB-BF20-6F50EE76254E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.77734375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -944,33 +683,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1100,13 +839,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1115,8 +854,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1137,13 +876,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1152,9 +891,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,13 +919,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1195,9 +934,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="21.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="18.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="21.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1223,12 +962,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1237,9 +976,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1265,13 +1004,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1280,12 +1019,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1326,32 +1065,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.48046875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.07421875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.8515625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="21.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1399,12 +1138,6 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
@@ -1412,7 +1145,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1428,12 +1161,6 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
@@ -1441,33 +1168,33 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:XFD3"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1522,7 +1249,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>